--- a/FurryMine/Assets/Resources/Datas/EnforceTable.xlsx
+++ b/FurryMine/Assets/Resources/Datas/EnforceTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndieGame\ProjectMine\Unity\FurryMine\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2101D9-5886-48D7-AD0B-2528A87A3907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D1A5B0-0972-492F-9BB1-95DD47A783E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A43B0041-ECC7-4F66-A9C8-632AF401BCEC}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -506,7 +506,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
